--- a/survey_1_template.xlsx
+++ b/survey_1_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Volunteer Phone Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -466,33 +471,53 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What are Michaels strenght</t>
+          <t>Do you know Michael Antoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>His weakness</t>
+          <t>What things would you love to be built in your area.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Weakness</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>What things do you want him to do for you?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/survey_1_template.xlsx
+++ b/survey_1_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Do you know Michael Antoine</t>
+          <t>Question 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>Strenght</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -485,39 +485,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What things would you love to be built in your area.</t>
+          <t>Question 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>Weakness</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>What things do you want him to do for you?</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
